--- a/org/Testplan.xlsx
+++ b/org/Testplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>UI</t>
   </si>
@@ -145,6 +145,30 @@
   </si>
   <si>
     <t>Create new sln while AddIn is loaded</t>
+  </si>
+  <si>
+    <t>Single EXE</t>
+  </si>
+  <si>
+    <t>Multi EXE</t>
+  </si>
+  <si>
+    <t>Mixed DLL/EXE</t>
+  </si>
+  <si>
+    <t>EXE w/o any tests</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Create new file</t>
+  </si>
+  <si>
+    <t>Add to existing file</t>
+  </si>
+  <si>
+    <t>Solutions</t>
   </si>
 </sst>
 </file>
@@ -476,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B58"/>
+  <dimension ref="A2:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -628,83 +652,123 @@
         <v>14</v>
       </c>
     </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>24</v>
+      <c r="B36" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="B37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="B40" t="s">
-        <v>30</v>
+      <c r="A40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="B44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="B52" t="s">
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="B57" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="B58" t="s">
+    <row r="64" spans="1:2">
+      <c r="B64" t="s">
         <v>42</v>
       </c>
     </row>
